--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.3447</v>
+        <v>-12.1902</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.707900000000004</v>
+        <v>6.045200000000006</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.39959999999999</v>
+        <v>16.5369</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.46330000000003</v>
+        <v>18.48930000000002</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.170900000000002</v>
+        <v>5.960599999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.347300000000004</v>
+        <v>9.447699999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.2302</v>
+        <v>9.311300000000003</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.2939</v>
+        <v>16.371</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.660900000000001</v>
+        <v>5.671400000000002</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.3756</v>
+        <v>-11.7215</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.2339</v>
+        <v>16.98100000000001</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.381100000000006</v>
+        <v>5.018700000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8942</v>
+        <v>-12.82789999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.210700000000002</v>
+        <v>5.038500000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2697</v>
+        <v>-13.4254</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.58630000000001</v>
+        <v>-12.72480000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.65449999999999</v>
+        <v>-11.49099999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4388</v>
+        <v>16.2873</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5936</v>
+        <v>-11.6318</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.50249999999999</v>
+        <v>-11.5524</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.582499999999998</v>
+        <v>6.079700000000003</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.59650000000001</v>
+        <v>16.49730000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.5727</v>
+        <v>-13.57479999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.36579999999999</v>
+        <v>-13.22759999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.998599999999993</v>
+        <v>4.930499999999995</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.33409999999999</v>
+        <v>-13.60639999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6353</v>
+        <v>16.6166</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.859699999999999</v>
+        <v>4.851700000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.6343</v>
+        <v>16.56650000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.28310000000002</v>
+        <v>18.57410000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.663099999999994</v>
+        <v>5.652599999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.37960000000002</v>
+        <v>18.64420000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.7438</v>
+        <v>-13.2509</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.890300000000003</v>
+        <v>9.262600000000008</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.312499999999996</v>
+        <v>5.574899999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.7101</v>
+        <v>16.5448</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.0242</v>
+        <v>-9.975800000000005</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.4841</v>
+        <v>-12.6003</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.029600000000002</v>
+        <v>5.017100000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.4248</v>
+        <v>-10.3813</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.573299999999997</v>
+        <v>5.675699999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.0098</v>
+        <v>15.8295</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.45510000000001</v>
+        <v>16.3623</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.75869999999999</v>
+        <v>16.7493</v>
       </c>
     </row>
   </sheetData>
